--- a/biology/Médecine/Péthidine/Péthidine.xlsx
+++ b/biology/Médecine/Péthidine/Péthidine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9thidine</t>
+          <t>Péthidine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La péthidine (Dolantine, Demerol, anciennement Dolosal) est un antalgique opioïde de synthèse, dérivé de la pipéridine, morphinomimétique agoniste pur, classe 3 de l'OMS. En thérapeutique, elle est utilisée en intramusculaire sous la forme de chlorhydrate de péthidine. Elle possède un pouvoir histaminolibérateur. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9thidine</t>
+          <t>Péthidine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,20 +527,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Contre-indications absolues
-Tous les IMAO, qu'ils soient non sélectifs, A-sélectifs ou B-sélectifs. Cette association expose à un risque majeur de syndrome sérotoninergique, et d'encéphalopathie sévère, parfois mortelle.
+          <t>Contre-indications absolues</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tous les IMAO, qu'ils soient non sélectifs, A-sélectifs ou B-sélectifs. Cette association expose à un risque majeur de syndrome sérotoninergique, et d'encéphalopathie sévère, parfois mortelle.
 L'allaitement (des cas de pauses respiratoires et d'hypotonie ont été décrits chez des nourrissons allaités par des mères sous traitement).
 Les états convulsifs.
 Les insuffisances hépato-cellulaires graves.
 Les intoxications éthyliques aiguës, le délirium tremens.
 Les traumatismes crâniens, les hypertensions intra-crâniennes.
 Les nourrissons de moins de 6 mois.
-L'hypersensibilité à la molécule.
-Contre-indications relatives
-Toute prise concomitante d'un composé potentiellement sédatif (alcool, analgésiques, anxiolytiques, antidépresseurs...)
-La grossesse : les études animales n'ont pas permis d'exclure le risque de tératogenèse ; la péthidine n'est donc habituellement pas utilisée par principe de précaution. Sur une grossesse plus évoluée, elle peut être responsable de troubles neuro-comportementaux et de dépression respiratoire.
-La péthidine doit s'utiliser avec prudence devant toute douleur abdominale aiguë ; comme tout antalgique majeur de classe 3, elle risque de masquer un « ventre chirurgical » et retarder d'autant une décision opératoire.
-Patients cardiaques ou à état hémodynamique précaire, en raison des propriétés inotropes négatives.</t>
+L'hypersensibilité à la molécule.</t>
         </is>
       </c>
     </row>
@@ -538,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9thidine</t>
+          <t>Péthidine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,10 +565,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Contre-indications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Contre-indications relatives</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Toute prise concomitante d'un composé potentiellement sédatif (alcool, analgésiques, anxiolytiques, antidépresseurs...)
+La grossesse : les études animales n'ont pas permis d'exclure le risque de tératogenèse ; la péthidine n'est donc habituellement pas utilisée par principe de précaution. Sur une grossesse plus évoluée, elle peut être responsable de troubles neuro-comportementaux et de dépression respiratoire.
+La péthidine doit s'utiliser avec prudence devant toute douleur abdominale aiguë ; comme tout antalgique majeur de classe 3, elle risque de masquer un « ventre chirurgical » et retarder d'autant une décision opératoire.
+Patients cardiaques ou à état hémodynamique précaire, en raison des propriétés inotropes négatives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Péthidine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/P%C3%A9thidine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les plus fréquents sont la constipation, les nausées, les vomissements ; on note également comme avec tous les antalgiques majeurs, de la somnolence, des impressions vertigineuses, une hypotension orthostatique.
 Il existe un risque de rétention urinaire chez les sujets porteurs d'un adénome prostatique.
@@ -572,31 +625,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>P%C3%A9thidine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Péthidine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/P%C3%A9thidine</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Législation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Considérée comme un stupéfiant particulièrement dangereux, la péthidine ne peut être prescrite en France que par période de sept jours (au lieu de 28 jours pour les autres morphiniques). La péthidine n'est pas commercialisée en France en 2024. 
 </t>
